--- a/DataBase/design1.0.0.xlsx
+++ b/DataBase/design1.0.0.xlsx
@@ -2,25 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Class\java\rs\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1627814F-0445-4612-A70B-152A69D1A1BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF47BB9-F5B1-4481-87E3-EAF5F512AD3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="28557" windowHeight="16150" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" activeTab="1" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
-    <sheet name="sys_data" sheetId="5" r:id="rId2"/>
-    <sheet name="sys_dict" sheetId="4" r:id="rId3"/>
-    <sheet name="com_sub" sheetId="3" r:id="rId4"/>
-    <sheet name="t_user" sheetId="2" r:id="rId5"/>
+    <sheet name="sys_role_user" sheetId="11" r:id="rId2"/>
+    <sheet name="sys_role" sheetId="10" r:id="rId3"/>
+    <sheet name="sys_dept" sheetId="9" r:id="rId4"/>
+    <sheet name="sub_replace" sheetId="8" r:id="rId5"/>
+    <sheet name="stu_opt" sheetId="6" r:id="rId6"/>
+    <sheet name="subject" sheetId="7" r:id="rId7"/>
+    <sheet name="sys_data" sheetId="5" r:id="rId8"/>
+    <sheet name="sys_dict" sheetId="4" r:id="rId9"/>
+    <sheet name="com_sub" sheetId="3" r:id="rId10"/>
+    <sheet name="sys_user" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="172">
   <si>
     <t>数据库设计1.0</t>
   </si>
@@ -355,6 +360,346 @@
   </si>
   <si>
     <t>对应value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu_opt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t>sub_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+  </si>
+  <si>
+    <t>creat_time</t>
+  </si>
+  <si>
+    <t>creat_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>update_by</t>
+  </si>
+  <si>
+    <t>del_flag</t>
+  </si>
+  <si>
+    <t>课程id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>删除标志</t>
+  </si>
+  <si>
+    <t>stu_opt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生-已选重修表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>sub_begin_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_college</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_men_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_plan_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_total_period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_theory_period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_course_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_course_genre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_teacher_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>开课编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学班名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_men_total_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总学时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论学时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选课类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应表名注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替代课程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为替代课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_replace_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原课程代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替代课程课程代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_dept</t>
+  </si>
+  <si>
+    <t>sys_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>sys_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级部门id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色_用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,13 +782,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,136 +1142,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B27B1CD-F2C8-4BD9-96F4-C86810D97D33}">
-  <dimension ref="A1:L88"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.36328125" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="59.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:12" ht="59.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:12" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="58.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:12" ht="58.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="10" spans="1:12" ht="58.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="57.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="54.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -899,7 +1321,6 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1255,6 +1676,11 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1262,22 +1688,1466 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" location="t_user!A1" display="t_user   用户表" xr:uid="{F8472A49-B02B-4F39-9C13-E7440139BCF1}"/>
-    <hyperlink ref="A6" location="com_sub!A1" display="com_sub" xr:uid="{140DA912-3313-49F1-B6B1-5E850FB4F1B4}"/>
-    <hyperlink ref="A7" location="sys_dict!A1" display="sys_dict" xr:uid="{BB1EF597-1F21-4A04-9C90-579662BD5760}"/>
-    <hyperlink ref="A8" location="sys_data!A1" display="sys_data" xr:uid="{BC7B75DB-BF68-4F1C-B26C-52CE218DCD78}"/>
+    <hyperlink ref="A7" location="com_sub!A1" display="com_sub" xr:uid="{140DA912-3313-49F1-B6B1-5E850FB4F1B4}"/>
+    <hyperlink ref="A8" location="sys_dict!A1" display="sys_dict" xr:uid="{BB1EF597-1F21-4A04-9C90-579662BD5760}"/>
+    <hyperlink ref="A9" location="sys_data!A1" display="sys_data" xr:uid="{BC7B75DB-BF68-4F1C-B26C-52CE218DCD78}"/>
+    <hyperlink ref="A10" location="stu_opt!A1" display="stu_opt" xr:uid="{11A2C77B-C17C-4CE2-ABA7-B70D5B4E49CF}"/>
+    <hyperlink ref="A11" location="subject!A1" display="subject" xr:uid="{D5CBCECF-6BB9-4DE2-AF5C-53B9E85B66C0}"/>
+    <hyperlink ref="A12" location="sub_replace!A1" display="sub_replace" xr:uid="{C35A4438-7B2F-4091-8CBC-57A0E0FBCE78}"/>
+    <hyperlink ref="A6" location="sys_user!A1" display="sys_user" xr:uid="{15F587EC-F81F-4E89-B54D-84290FBD0FF1}"/>
+    <hyperlink ref="A13" location="sys_dept!A1" display="sys_dept" xr:uid="{06D584F6-C7D4-4402-B8F4-8BAD2B3CE1BF}"/>
+    <hyperlink ref="A14" location="sys_role!A1" display="sys_role" xr:uid="{9BCDAA6D-6138-4FF1-B7A3-1290201E294D}"/>
+    <hyperlink ref="A15" location="sys_role_user!A1" display="sys_role_user" xr:uid="{304E59B7-A339-4C95-8CC2-418653CF8397}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE74B9F-E921-4FC5-BDC1-702328C89BC6}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E685200-DA3E-43F7-9A8C-ED0981AA6348}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="51.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B731B8EA-5262-46B0-B463-BEDC70CAF103}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ED2E93-2061-49FA-88B9-2947CEB2E5B2}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A8BD8B-AF28-4950-A9DA-CD5A3D66D55A}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="52.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="52.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A7BE81-3116-4C78-9729-357B6A3BD167}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A669C9A-7D1B-47DC-8303-9E3182BC9B49}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="8" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="8" customFormat="1" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA315716-1B66-46D3-8E68-AB3F98B4A852}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="44.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032C1BE0-E978-4ABE-841F-9CC8FA25639A}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="28.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B731B8EA-5262-46B0-B463-BEDC70CAF103}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1289,21 +3159,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1317,7 +3187,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="48.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
@@ -1329,7 +3199,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
@@ -1341,7 +3211,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>67</v>
       </c>
@@ -1353,7 +3223,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
@@ -1365,7 +3235,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1377,7 +3247,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="44.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1389,7 +3259,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1401,7 +3271,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1413,7 +3283,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1430,11 +3300,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2141380-2A07-454A-8E8E-F02016A589FD}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1450,21 +3322,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1478,7 +3350,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>66</v>
       </c>
@@ -1490,7 +3362,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>67</v>
       </c>
@@ -1502,7 +3374,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1514,7 +3386,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1526,7 +3398,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
@@ -1538,7 +3410,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1550,7 +3422,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
@@ -1562,7 +3434,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1574,7 +3446,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>69</v>
       </c>
@@ -1593,367 +3465,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE74B9F-E921-4FC5-BDC1-702328C89BC6}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.90625" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A12"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E685200-DA3E-43F7-9A8C-ED0981AA6348}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.1796875" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="51.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A13"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DataBase/design1.0.0.xlsx
+++ b/DataBase/design1.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Class\java\rs\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\shengxi\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF47BB9-F5B1-4481-87E3-EAF5F512AD3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BBC0BF-4B40-45A3-BA60-142F8AD073A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" activeTab="1" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="174">
   <si>
     <t>数据库设计1.0</t>
   </si>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>staus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>char(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>major</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帐号状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,17 +357,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sub_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>char(1)</t>
   </si>
   <si>
     <t>creat_time</t>
-  </si>
-  <si>
-    <t>creat_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -434,14 +407,6 @@
     <t>subject</t>
   </si>
   <si>
-    <t>sub_begin_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_college</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sub_credit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,10 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教学班名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,14 +559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原课程代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>替代课程课程代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sub_replace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,6 +653,61 @@
   </si>
   <si>
     <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_carry_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开课学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_practice_period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践学时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原课程编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替代课程课程编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>sub_institute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>institute_remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开课学院备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic_remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教务部备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +715,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +754,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -772,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,12 +801,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -825,6 +834,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,84 +1163,84 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="100.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1234,84 +1252,84 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>35</v>
+    <row r="6" spans="1:12" ht="57.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="59.3" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="58.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="58.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="57.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>149</v>
+      <c r="A13" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>165</v>
+      <c r="A14" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="54.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>167</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="54.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1709,19 +1727,19 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.90625" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+    <col min="3" max="3" width="23.9140625" customWidth="1"/>
+    <col min="4" max="4" width="25.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1732,144 +1750,144 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="10" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="11" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
     </row>
   </sheetData>
@@ -1887,19 +1905,19 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.1796875" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.4140625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1910,153 +1928,153 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="6" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1" t="s">
+    <row r="9" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2071,135 +2089,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ED2E93-2061-49FA-88B9-2947CEB2E5B2}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D6" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="D7" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="16" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2208,144 +2238,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A8BD8B-AF28-4950-A9DA-CD5A3D66D55A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.08203125" customWidth="1"/>
+    <col min="2" max="2" width="23.9140625" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="52.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="14" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="52.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D6" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="52.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="52.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="D7" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="13" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2354,144 +2396,308 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A7BE81-3116-4C78-9729-357B6A3BD167}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>118</v>
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D7" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D8" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A669C9A-7D1B-47DC-8303-9E3182BC9B49}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="24.4140625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="14" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A10"/>
@@ -2502,164 +2708,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A669C9A-7D1B-47DC-8303-9E3182BC9B49}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA315716-1B66-46D3-8E68-AB3F98B4A852}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.4140625" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2670,146 +2736,170 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="44.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="7" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="7" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="44.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2819,21 +2909,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032C1BE0-E978-4ABE-841F-9CC8FA25639A}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="34.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
-    <col min="4" max="4" width="28.08984375" customWidth="1"/>
+    <col min="1" max="1" width="24.4140625" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="4" max="4" width="28.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2844,296 +2934,308 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="7" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    <row r="18" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
       <c r="B19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="40.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="A2:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3146,19 +3248,17 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.4140625" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3169,129 +3269,129 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>77</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="48.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="44.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3309,19 +3409,17 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="42.90625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.9140625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="42.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3332,129 +3430,129 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/design1.0.0.xlsx
+++ b/DataBase/design1.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\shengxi\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Class\java\rs\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BBC0BF-4B40-45A3-BA60-142F8AD073A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE6A32-5403-40A0-AB58-E8ABBF63DCEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" tabRatio="777" activeTab="6" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="sys_user" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="176">
   <si>
     <t>数据库设计1.0</t>
   </si>
@@ -708,6 +709,14 @@
   </si>
   <si>
     <t>教务部备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周学时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>week_period</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,13 +845,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1163,76 +1175,76 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" ht="100.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>127</v>
       </c>
@@ -1252,7 +1264,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="57.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1260,7 +1272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="59.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1268,7 +1280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
@@ -1292,7 +1304,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="57.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>124</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="54.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="54.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>155</v>
       </c>
@@ -1727,19 +1739,19 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.9140625" customWidth="1"/>
-    <col min="4" max="4" width="25.08203125" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1753,8 +1765,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" ht="34.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1767,8 +1779,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:4" ht="34.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1779,8 +1791,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:4" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1791,8 +1803,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:4" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1804,7 +1816,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1815,8 +1827,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:4" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
@@ -1828,7 +1840,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1839,8 +1851,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:4" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1851,8 +1863,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:4" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1863,8 +1875,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:4" ht="34.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1876,7 +1888,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1887,7 +1899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
     </row>
   </sheetData>
@@ -1909,15 +1921,15 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.4140625" customWidth="1"/>
+    <col min="1" max="1" width="36.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1931,22 +1943,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="31.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>161</v>
       </c>
@@ -1958,7 +1970,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +1982,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +1994,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1994,7 +2006,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
@@ -2006,7 +2018,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2018,7 +2030,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2030,7 +2042,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2042,7 +2054,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2053,8 +2065,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +2078,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
@@ -2092,18 +2104,18 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>126</v>
       </c>
@@ -2117,8 +2129,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2131,8 +2143,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:4" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
       <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
@@ -2143,8 +2155,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="14" t="s">
         <v>158</v>
       </c>
@@ -2155,8 +2167,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="B5" s="14" t="s">
         <v>168</v>
       </c>
@@ -2168,7 +2180,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
@@ -2179,8 +2191,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>84</v>
       </c>
@@ -2192,7 +2204,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>85</v>
       </c>
@@ -2203,8 +2215,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:4" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>105</v>
       </c>
@@ -2215,8 +2227,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:4" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>86</v>
       </c>
@@ -2233,6 +2245,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2240,19 +2253,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A8BD8B-AF28-4950-A9DA-CD5A3D66D55A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.08203125" customWidth="1"/>
-    <col min="2" max="2" width="23.9140625" customWidth="1"/>
-    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>126</v>
       </c>
@@ -2266,8 +2277,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2281,7 +2292,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="52.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="11" t="s">
         <v>149</v>
       </c>
@@ -2292,8 +2303,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="52.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:4" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="11" t="s">
         <v>150</v>
       </c>
@@ -2304,8 +2315,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
@@ -2316,8 +2327,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2328,8 +2339,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
       <c r="B7" s="11" t="s">
         <v>84</v>
       </c>
@@ -2340,8 +2351,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:4" ht="45.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
       <c r="B8" s="11" t="s">
         <v>85</v>
       </c>
@@ -2352,8 +2363,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
       <c r="B9" s="11" t="s">
         <v>105</v>
       </c>
@@ -2365,22 +2376,22 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2402,15 +2413,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
@@ -2425,7 +2436,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2438,8 +2449,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
       <c r="B3" s="8" t="s">
         <v>142</v>
       </c>
@@ -2451,7 +2462,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="8" t="s">
         <v>144</v>
       </c>
@@ -2462,8 +2473,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="B5" s="8" t="s">
         <v>146</v>
       </c>
@@ -2474,8 +2485,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:4" s="7" customFormat="1" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
@@ -2486,8 +2497,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:4" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2499,7 +2510,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="8" t="s">
         <v>84</v>
       </c>
@@ -2510,8 +2521,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
       <c r="B9" s="8" t="s">
         <v>85</v>
       </c>
@@ -2522,8 +2533,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
       <c r="B10" s="8" t="s">
         <v>105</v>
       </c>
@@ -2534,8 +2545,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
       <c r="B11" s="8" t="s">
         <v>86</v>
       </c>
@@ -2564,15 +2575,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="3" width="24.4140625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2586,8 +2597,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2600,8 +2611,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="45.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
       <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
@@ -2613,7 +2624,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="6" t="s">
         <v>134</v>
       </c>
@@ -2625,7 +2636,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="14" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
@@ -2636,8 +2647,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
@@ -2648,8 +2659,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
       <c r="B7" s="6" t="s">
         <v>84</v>
       </c>
@@ -2660,8 +2671,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
       <c r="B8" s="6" t="s">
         <v>85</v>
       </c>
@@ -2672,8 +2683,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:4" s="6" customFormat="1" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
       <c r="B9" s="6" t="s">
         <v>105</v>
       </c>
@@ -2684,8 +2695,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:4" s="6" customFormat="1" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
       <c r="B10" s="6" t="s">
         <v>86</v>
       </c>
@@ -2713,19 +2724,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.4140625" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2740,7 +2751,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2753,8 +2764,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
@@ -2765,8 +2776,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
@@ -2778,7 +2789,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="44.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
@@ -2789,8 +2800,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:4" ht="45.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2801,8 +2812,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:4" s="7" customFormat="1" ht="45.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>170</v>
       </c>
@@ -2813,8 +2824,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="7" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:4" s="7" customFormat="1" ht="45.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>172</v>
       </c>
@@ -2825,8 +2836,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2837,8 +2848,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
       <c r="B10" s="2" t="s">
         <v>82</v>
       </c>
@@ -2850,7 +2861,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2861,8 +2872,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -2873,8 +2884,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2885,8 +2896,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2909,21 +2920,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032C1BE0-E978-4ABE-841F-9CC8FA25639A}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.4140625" customWidth="1"/>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="28.08203125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="28.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2937,8 +2948,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" ht="45.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2951,8 +2962,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
         <v>162</v>
       </c>
@@ -2964,7 +2975,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
@@ -2975,8 +2986,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
@@ -2987,8 +2998,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:4" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>169</v>
       </c>
@@ -3000,7 +3011,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>96</v>
       </c>
@@ -3011,8 +3022,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>97</v>
       </c>
@@ -3023,8 +3034,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>98</v>
       </c>
@@ -3036,7 +3047,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2" t="s">
         <v>114</v>
       </c>
@@ -3047,195 +3058,207 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:4" s="7" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="7" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14" t="s">
+    <row r="15" spans="1:4" s="7" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="1:4" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A2:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3250,15 +3273,15 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.4140625" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.4140625" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3272,8 +3295,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3286,8 +3309,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="48.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:4" ht="48.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
@@ -3298,8 +3321,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>74</v>
       </c>
@@ -3311,7 +3334,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
@@ -3322,8 +3345,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>63</v>
       </c>
@@ -3335,7 +3358,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
@@ -3347,7 +3370,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="44.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
@@ -3359,7 +3382,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
@@ -3370,8 +3393,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
@@ -3383,7 +3406,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
@@ -3411,15 +3434,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.9140625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="42.9140625" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="42.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3433,8 +3456,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3448,7 +3471,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
@@ -3459,8 +3482,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
@@ -3472,7 +3495,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
@@ -3484,7 +3507,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -3495,8 +3518,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
@@ -3508,7 +3531,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
@@ -3519,8 +3542,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>63</v>
       </c>
@@ -3532,7 +3555,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
@@ -3544,7 +3567,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>64</v>
       </c>

--- a/DataBase/design1.0.0.xlsx
+++ b/DataBase/design1.0.0.xlsx
@@ -5,28 +5,28 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Class\java\rs\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Class\rs\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE6A32-5403-40A0-AB58-E8ABBF63DCEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83962A50-3A22-428D-9A60-1A96AA8BC32F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" tabRatio="777" activeTab="6" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="28557" windowHeight="16150" tabRatio="777" activeTab="1" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
-    <sheet name="sys_role_user" sheetId="11" r:id="rId2"/>
-    <sheet name="sys_role" sheetId="10" r:id="rId3"/>
-    <sheet name="sys_dept" sheetId="9" r:id="rId4"/>
-    <sheet name="sub_replace" sheetId="8" r:id="rId5"/>
-    <sheet name="stu_opt" sheetId="6" r:id="rId6"/>
-    <sheet name="subject" sheetId="7" r:id="rId7"/>
-    <sheet name="sys_data" sheetId="5" r:id="rId8"/>
-    <sheet name="sys_dict" sheetId="4" r:id="rId9"/>
-    <sheet name="com_sub" sheetId="3" r:id="rId10"/>
-    <sheet name="sys_user" sheetId="2" r:id="rId11"/>
+    <sheet name="sys_menu" sheetId="12" r:id="rId2"/>
+    <sheet name="sys_role_user" sheetId="11" r:id="rId3"/>
+    <sheet name="sys_role" sheetId="10" r:id="rId4"/>
+    <sheet name="sys_dept" sheetId="9" r:id="rId5"/>
+    <sheet name="sub_replace" sheetId="8" r:id="rId6"/>
+    <sheet name="stu_opt" sheetId="6" r:id="rId7"/>
+    <sheet name="subject" sheetId="7" r:id="rId8"/>
+    <sheet name="sys_data" sheetId="5" r:id="rId9"/>
+    <sheet name="sys_dict" sheetId="4" r:id="rId10"/>
+    <sheet name="com_sub" sheetId="3" r:id="rId11"/>
+    <sheet name="sys_user" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="192">
   <si>
     <t>数据库设计1.0</t>
   </si>
@@ -717,6 +717,70 @@
   </si>
   <si>
     <t>week_period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vachar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父菜单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,6 +910,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1176,7 +1243,7 @@
   <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1187,62 +1254,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1344,9 +1411,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:12" ht="44.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1735,6 +1806,167 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2141380-2A07-454A-8E8E-F02016A589FD}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="42.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE74B9F-E921-4FC5-BDC1-702328C89BC6}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D13"/>
@@ -1766,7 +1998,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1780,7 +2012,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1792,7 +2024,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1804,7 +2036,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1816,7 +2048,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1828,7 +2060,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
@@ -1840,7 +2072,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1852,7 +2084,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1864,7 +2096,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="33.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1876,7 +2108,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="34.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1888,7 +2120,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1912,7 +2144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E685200-DA3E-43F7-9A8C-ED0981AA6348}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D13"/>
@@ -1944,7 +2176,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="31.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -1958,7 +2190,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>161</v>
       </c>
@@ -1970,7 +2202,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1982,7 +2214,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1994,7 +2226,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2006,7 +2238,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
@@ -2018,7 +2250,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2030,7 +2262,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2042,7 +2274,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2054,7 +2286,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2066,7 +2298,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2078,7 +2310,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
@@ -2100,11 +2332,207 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6816C5-930F-4BB1-9627-31498BD8F328}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="57.08984375" customWidth="1"/>
+    <col min="3" max="3" width="43.08984375" customWidth="1"/>
+    <col min="4" max="4" width="56.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="7" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="38.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ED2E93-2061-49FA-88B9-2947CEB2E5B2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2130,7 +2558,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>157</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2144,7 +2572,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2584,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="14" t="s">
         <v>158</v>
       </c>
@@ -2168,7 +2596,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="14" t="s">
         <v>168</v>
       </c>
@@ -2180,7 +2608,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
@@ -2192,7 +2620,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="14" t="s">
         <v>84</v>
       </c>
@@ -2204,7 +2632,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="14" t="s">
         <v>85</v>
       </c>
@@ -2216,7 +2644,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="14" t="s">
         <v>105</v>
       </c>
@@ -2228,7 +2656,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="14" t="s">
         <v>86</v>
       </c>
@@ -2249,7 +2677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A8BD8B-AF28-4950-A9DA-CD5A3D66D55A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -2278,7 +2706,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2292,7 +2720,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="52.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="11" t="s">
         <v>149</v>
       </c>
@@ -2304,7 +2732,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="11" t="s">
         <v>150</v>
       </c>
@@ -2316,7 +2744,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
@@ -2328,7 +2756,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2340,7 +2768,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="11" t="s">
         <v>84</v>
       </c>
@@ -2352,7 +2780,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="45.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="11" t="s">
         <v>85</v>
       </c>
@@ -2364,7 +2792,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="11" t="s">
         <v>105</v>
       </c>
@@ -2376,22 +2804,22 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="11.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2405,7 +2833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A7BE81-3116-4C78-9729-357B6A3BD167}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -2436,7 +2864,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2450,7 +2878,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="8" t="s">
         <v>142</v>
       </c>
@@ -2462,7 +2890,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="8" t="s">
         <v>144</v>
       </c>
@@ -2474,7 +2902,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="8" t="s">
         <v>146</v>
       </c>
@@ -2486,7 +2914,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="7" customFormat="1" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
@@ -2498,7 +2926,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2510,7 +2938,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="8" t="s">
         <v>84</v>
       </c>
@@ -2522,7 +2950,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="8" t="s">
         <v>85</v>
       </c>
@@ -2534,7 +2962,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="8" t="s">
         <v>105</v>
       </c>
@@ -2546,7 +2974,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
         <v>86</v>
       </c>
@@ -2567,7 +2995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A669C9A-7D1B-47DC-8303-9E3182BC9B49}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2598,7 +3026,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2612,7 +3040,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" ht="45.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
@@ -2624,7 +3052,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="6" t="s">
         <v>134</v>
       </c>
@@ -2636,7 +3064,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="14" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
@@ -2648,7 +3076,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
@@ -2660,7 +3088,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="6" t="s">
         <v>84</v>
       </c>
@@ -2672,7 +3100,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="6" t="s">
         <v>85</v>
       </c>
@@ -2684,7 +3112,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="6" t="s">
         <v>105</v>
       </c>
@@ -2696,7 +3124,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1" ht="46.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="6" t="s">
         <v>86</v>
       </c>
@@ -2719,7 +3147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA315716-1B66-46D3-8E68-AB3F98B4A852}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D14"/>
@@ -2751,7 +3179,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2765,7 +3193,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
@@ -2777,7 +3205,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
@@ -2789,7 +3217,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="44.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
@@ -2801,7 +3229,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="45.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2813,7 +3241,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="7" customFormat="1" ht="45.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="14" t="s">
         <v>170</v>
       </c>
@@ -2825,7 +3253,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" ht="45.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="14" t="s">
         <v>172</v>
       </c>
@@ -2837,7 +3265,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2849,7 +3277,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="2" t="s">
         <v>82</v>
       </c>
@@ -2861,7 +3289,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2873,7 +3301,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -2885,7 +3313,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2897,7 +3325,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2918,11 +3346,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032C1BE0-E978-4ABE-841F-9CC8FA25639A}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2949,7 +3377,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="45.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2963,7 +3391,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>162</v>
       </c>
@@ -2975,7 +3403,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
@@ -2987,7 +3415,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
@@ -2999,7 +3427,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>169</v>
       </c>
@@ -3011,7 +3439,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="2" t="s">
         <v>96</v>
       </c>
@@ -3023,7 +3451,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>97</v>
       </c>
@@ -3035,7 +3463,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2" t="s">
         <v>98</v>
       </c>
@@ -3047,7 +3475,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="2" t="s">
         <v>114</v>
       </c>
@@ -3059,7 +3487,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="7" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="17" t="s">
         <v>175</v>
       </c>
@@ -3071,7 +3499,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2" t="s">
         <v>99</v>
       </c>
@@ -3083,7 +3511,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>100</v>
       </c>
@@ -3095,7 +3523,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="2" t="s">
         <v>101</v>
       </c>
@@ -3107,7 +3535,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="7" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="14" t="s">
         <v>164</v>
       </c>
@@ -3119,7 +3547,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="2" t="s">
         <v>107</v>
       </c>
@@ -3131,7 +3559,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2" t="s">
         <v>102</v>
       </c>
@@ -3143,7 +3571,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2" t="s">
         <v>103</v>
       </c>
@@ -3155,7 +3583,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2" t="s">
         <v>132</v>
       </c>
@@ -3167,7 +3595,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="2" t="s">
         <v>104</v>
       </c>
@@ -3179,7 +3607,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3191,7 +3619,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
@@ -3203,7 +3631,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3215,7 +3643,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
@@ -3227,7 +3655,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3239,7 +3667,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
@@ -3266,7 +3694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B731B8EA-5262-46B0-B463-BEDC70CAF103}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D11"/>
@@ -3296,7 +3724,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3310,7 +3738,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="48.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
@@ -3322,7 +3750,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>74</v>
       </c>
@@ -3334,7 +3762,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
@@ -3346,7 +3774,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>63</v>
       </c>
@@ -3358,7 +3786,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
@@ -3370,7 +3798,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="44.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
@@ -3382,7 +3810,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
@@ -3394,7 +3822,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
@@ -3406,7 +3834,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
@@ -3415,167 +3843,6 @@
       </c>
       <c r="D11" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2141380-2A07-454A-8E8E-F02016A589FD}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="42.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="19.95" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/design1.0.0.xlsx
+++ b/DataBase/design1.0.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\Class\rs\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83962A50-3A22-428D-9A60-1A96AA8BC32F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45010927-34AD-4320-86A3-3921893C0C1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="28557" windowHeight="16150" tabRatio="777" activeTab="1" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" tabRatio="777" activeTab="1" xr2:uid="{E3F8DF36-C696-4162-8140-EAA9F03A2099}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -744,10 +744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vachar(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,6 +777,10 @@
   </si>
   <si>
     <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vachar(9)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2336,7 +2336,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="2" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>78</v>
@@ -2383,7 +2383,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2395,7 +2395,7 @@
         <v>180</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2407,31 +2407,31 @@
         <v>79</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2443,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.3">
